--- a/data/USA import price index (1948 a sept2020; trimestral) FMI.xlsx
+++ b/data/USA import price index (1948 a sept2020; trimestral) FMI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive-113626893456251289633/Mi unidad/UCA Sincronizado/UCA Proyecto de TESIS/Estadísticas/Lo que preparé para Github/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive-113626893456251289633/Mi unidad/UCA Sincronizado/UCA Proyecto de TESIS/Estadísticas/Github/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B9E200-AEB9-0549-9D21-CE199A7AA5F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CEEE3C-A184-5D4D-9F42-736CDEEFA7F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="18060" windowHeight="10360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="International Financial Statis" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2154" uniqueCount="1899">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2155" uniqueCount="1900">
   <si>
     <t>1948</t>
   </si>
@@ -6666,6 +6666,9 @@
   </si>
   <si>
     <t>USA Import Price Index All Commodities</t>
+  </si>
+  <si>
+    <t>Q4 2020</t>
   </si>
 </sst>
 </file>
@@ -7035,13 +7038,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IV2"/>
+  <dimension ref="A1:IW2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="245" zoomScaleNormal="245" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="IS2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="IW2" sqref="IW2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7051,7 +7054,7 @@
     <col min="50" max="256" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:257" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
@@ -7817,8 +7820,11 @@
       <c r="IV1" s="1" t="s">
         <v>944</v>
       </c>
+      <c r="IW1" s="1" t="s">
+        <v>1899</v>
+      </c>
     </row>
-    <row r="2" spans="1:256" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:257" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1898</v>
       </c>
@@ -8585,6 +8591,9 @@
         <v>103.393006560968</v>
       </c>
       <c r="IV2" s="3">
+        <v>104.75136258972501</v>
+      </c>
+      <c r="IW2" s="3">
         <v>104.75136258972501</v>
       </c>
     </row>

--- a/data/USA import price index (1948 a sept2020; trimestral) FMI.xlsx
+++ b/data/USA import price index (1948 a sept2020; trimestral) FMI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive-113626893456251289633/Mi unidad/UCA Sincronizado/UCA Proyecto de TESIS/Estadísticas/Github/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CEEE3C-A184-5D4D-9F42-736CDEEFA7F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7F21B8-EF8F-5A46-98F2-6126D6ACEA27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="18060" windowHeight="10360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="International Financial Statis" sheetId="1" r:id="rId1"/>
@@ -7041,10 +7041,10 @@
   <dimension ref="A1:IW2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="245" zoomScaleNormal="245" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="IS2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="FY2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="IW2" sqref="IW2"/>
+      <selection pane="bottomRight" activeCell="IV2" sqref="IV2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8594,7 +8594,7 @@
         <v>104.75136258972501</v>
       </c>
       <c r="IW2" s="3">
-        <v>104.75136258972501</v>
+        <v>105.48866</v>
       </c>
     </row>
   </sheetData>
